--- a/CORE/W1/Reports/DailyDealBoard_radsoft.xlsx
+++ b/CORE/W1/Reports/DailyDealBoard_radsoft.xlsx
@@ -127,7 +127,7 @@
     <t>Approved by</t>
   </si>
   <si>
-    <t>Authorized signature</t>
+    <t>Widya Bharata</t>
   </si>
   <si>
     <t>REKSA DANA NIKKO SAHAM PEMBANGUNAN INDONESIA</t>
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="14">
@@ -569,7 +569,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8"/>
     </row>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="63">
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="161">
@@ -1638,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="C209" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="210">
@@ -1944,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="C258" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="259">
@@ -2090,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="B279" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C279" s="8"/>
     </row>
@@ -2250,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="C307" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="308">
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="C356" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="357">
@@ -2862,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="C405" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="406">
@@ -3168,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="C454" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="455">
@@ -3474,7 +3474,7 @@
         <v>6</v>
       </c>
       <c r="C503" s="5">
-        <v>44124</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="504">
@@ -3900,7 +3900,7 @@
   <pageSetup fitToWidth="1" fitToHeight="0" orientation="portrait" paperSize="9"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;20&amp;B DAILY DEAL BOARD</oddHeader>
-    <oddFooter>&amp;L&amp;8 Time : 28/Dec/2020 04:32:09&amp;RPage &amp;P of &amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;8 Time : 06/Jan/2021 06:58:07&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="11" manualBreakCount="11">
     <brk id="50" max="1048575" man="1"/>
